--- a/Jogos_da_Semana_FlashScore_2025-03-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-13.xlsx
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="H3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="L3" t="n">
         <v>3.8</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3.95</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
@@ -864,22 +864,22 @@
         <v>1.6</v>
       </c>
       <c r="X3" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="Y3" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AA3" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>8.25</v>
-      </c>
       <c r="AB3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AC3" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AD3" t="n">
         <v>22</v>
@@ -894,22 +894,22 @@
         <v>13.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AI3" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AJ3" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AK3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL3" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AM3" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AN3" t="n">
         <v>32</v>
@@ -976,13 +976,13 @@
         <v>9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R4" t="n">
         <v>2.1</v>
@@ -1000,7 +1000,7 @@
         <v>3.25</v>
       </c>
       <c r="W4" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="X4" t="n">
         <v>2</v>
@@ -1094,37 +1094,37 @@
         <v>1.33</v>
       </c>
       <c r="H5" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="I5" t="n">
         <v>7.5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="K5" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L5" t="n">
         <v>6.5</v>
       </c>
       <c r="M5" t="n">
-        <v>19</v>
+        <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>1.03</v>
+        <v>12</v>
       </c>
       <c r="O5" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="R5" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S5" t="n">
         <v>2.1</v>
@@ -1133,22 +1133,22 @@
         <v>1.67</v>
       </c>
       <c r="U5" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="V5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="W5" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="X5" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA5" t="n">
         <v>9</v>
@@ -1160,10 +1160,10 @@
         <v>11</v>
       </c>
       <c r="AD5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
         <v>11</v>
@@ -1172,7 +1172,7 @@
         <v>19</v>
       </c>
       <c r="AH5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI5" t="n">
         <v>23</v>
@@ -1181,13 +1181,13 @@
         <v>41</v>
       </c>
       <c r="AK5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL5" t="n">
         <v>81</v>
       </c>
       <c r="AM5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN5" t="n">
         <v>41</v>
@@ -1233,64 +1233,64 @@
         <v>1.3</v>
       </c>
       <c r="H6" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I6" t="n">
         <v>8.5</v>
       </c>
       <c r="J6" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="K6" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L6" t="n">
         <v>7</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="O6" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P6" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R6" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S6" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="T6" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="U6" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="V6" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="W6" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="X6" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB6" t="n">
         <v>8.5</v>
@@ -1299,10 +1299,10 @@
         <v>11</v>
       </c>
       <c r="AD6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF6" t="n">
         <v>11</v>
@@ -1332,13 +1332,13 @@
         <v>51</v>
       </c>
       <c r="AO6" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1373,61 +1373,61 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I7" t="n">
         <v>2.87</v>
       </c>
       <c r="J7" t="n">
-        <v>2.82</v>
+        <v>2.87</v>
       </c>
       <c r="K7" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="L7" t="n">
         <v>3.4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="O7" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="P7" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="R7" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="S7" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="T7" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="U7" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="V7" t="n">
-        <v>2.82</v>
+        <v>2.75</v>
       </c>
       <c r="W7" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="X7" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="Z7" t="n">
         <v>10.75</v>
@@ -1439,28 +1439,28 @@
         <v>22</v>
       </c>
       <c r="AC7" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AE7" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AG7" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH7" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AI7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ7" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AK7" t="n">
         <v>10.5</v>
@@ -1472,10 +1472,10 @@
         <v>25</v>
       </c>
       <c r="AN7" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AO7" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="AP7" t="inlineStr"/>
       <c r="AQ7" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-13.xlsx
@@ -682,28 +682,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="H2" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="I2" t="n">
-        <v>4.25</v>
+        <v>4.4</v>
       </c>
       <c r="J2" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="K2" t="n">
         <v>1.75</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="M2" t="n">
         <v>1.18</v>
       </c>
       <c r="N2" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="O2" t="n">
         <v>1.7</v>
@@ -718,7 +718,7 @@
         <v>1.33</v>
       </c>
       <c r="S2" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="T2" t="n">
         <v>1.11</v>
@@ -736,7 +736,7 @@
         <v>1.52</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z2" t="n">
         <v>8.5</v>
@@ -745,7 +745,7 @@
         <v>10</v>
       </c>
       <c r="AB2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC2" t="n">
         <v>26</v>
@@ -754,10 +754,10 @@
         <v>55</v>
       </c>
       <c r="AE2" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AG2" t="n">
         <v>22</v>
@@ -766,19 +766,19 @@
         <v>175</v>
       </c>
       <c r="AI2" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK2" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AL2" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AM2" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN2" t="n">
         <v>90</v>
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="H3" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I3" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="J3" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="K3" t="n">
         <v>2.27</v>
       </c>
       <c r="L3" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
@@ -853,10 +853,10 @@
         <v>2.02</v>
       </c>
       <c r="S3" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="T3" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
@@ -867,28 +867,28 @@
         <v>2.07</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AA3" t="n">
         <v>8.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AC3" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AD3" t="n">
         <v>22</v>
       </c>
       <c r="AE3" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AG3" t="n">
         <v>13.5</v>
@@ -897,22 +897,22 @@
         <v>50</v>
       </c>
       <c r="AI3" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AJ3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK3" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AL3" t="n">
         <v>45</v>
       </c>
       <c r="AM3" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AN3" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO3" t="n">
         <v>350</v>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H4" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
         <v>4.75</v>
@@ -967,13 +967,13 @@
         <v>2.3</v>
       </c>
       <c r="L4" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O4" t="n">
         <v>1.2</v>
@@ -982,10 +982,10 @@
         <v>4.33</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R4" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S4" t="n">
         <v>2.63</v>
@@ -994,7 +994,7 @@
         <v>1.44</v>
       </c>
       <c r="U4" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V4" t="n">
         <v>3.25</v>
@@ -1006,10 +1006,10 @@
         <v>2</v>
       </c>
       <c r="Y4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA4" t="n">
         <v>8.5</v>
@@ -1027,7 +1027,7 @@
         <v>13</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG4" t="n">
         <v>15</v>
@@ -1039,7 +1039,7 @@
         <v>15</v>
       </c>
       <c r="AJ4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK4" t="n">
         <v>15</v>
@@ -1127,13 +1127,13 @@
         <v>2.63</v>
       </c>
       <c r="S5" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T5" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="U5" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="V5" t="n">
         <v>4</v>
@@ -1230,13 +1230,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="H6" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="I6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J6" t="n">
         <v>1.67</v>
@@ -1245,7 +1245,7 @@
         <v>2.63</v>
       </c>
       <c r="L6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
@@ -1260,10 +1260,10 @@
         <v>5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="R6" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S6" t="n">
         <v>2.1</v>
@@ -1272,7 +1272,7 @@
         <v>1.67</v>
       </c>
       <c r="U6" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="V6" t="n">
         <v>3.75</v>
@@ -1284,13 +1284,13 @@
         <v>1.83</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB6" t="n">
         <v>8.5</v>
@@ -1305,7 +1305,7 @@
         <v>19</v>
       </c>
       <c r="AF6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG6" t="n">
         <v>21</v>
@@ -1314,16 +1314,16 @@
         <v>51</v>
       </c>
       <c r="AI6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ6" t="n">
         <v>41</v>
       </c>
       <c r="AK6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AM6" t="n">
         <v>51</v>
@@ -1376,10 +1376,10 @@
         <v>2.3</v>
       </c>
       <c r="H7" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="J7" t="n">
         <v>2.87</v>
@@ -1388,13 +1388,13 @@
         <v>2.12</v>
       </c>
       <c r="L7" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="O7" t="n">
         <v>1.35</v>
@@ -1412,7 +1412,7 @@
         <v>3.45</v>
       </c>
       <c r="T7" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="U7" t="n">
         <v>1.4</v>
@@ -1424,7 +1424,7 @@
         <v>1.83</v>
       </c>
       <c r="X7" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Y7" t="n">
         <v>7.3</v>
@@ -1436,7 +1436,7 @@
         <v>9.25</v>
       </c>
       <c r="AB7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC7" t="n">
         <v>19.5</v>
@@ -1445,10 +1445,10 @@
         <v>32</v>
       </c>
       <c r="AE7" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AG7" t="n">
         <v>15</v>
@@ -1463,19 +1463,19 @@
         <v>14</v>
       </c>
       <c r="AK7" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AL7" t="n">
         <v>35</v>
       </c>
       <c r="AM7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AN7" t="n">
         <v>37</v>
       </c>
       <c r="AO7" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AP7" t="inlineStr"/>
       <c r="AQ7" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-13.xlsx
@@ -682,58 +682,58 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="H2" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="I2" t="n">
         <v>4.4</v>
       </c>
       <c r="J2" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="K2" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="L2" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="O2" t="n">
         <v>1.75</v>
       </c>
-      <c r="L2" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="N2" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.7</v>
-      </c>
       <c r="P2" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S2" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="T2" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="U2" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="V2" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W2" t="n">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="X2" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="Y2" t="n">
         <v>4.7</v>
@@ -742,46 +742,46 @@
         <v>8.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AB2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC2" t="n">
         <v>26</v>
       </c>
       <c r="AD2" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AE2" t="n">
-        <v>4.3</v>
+        <v>4.15</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH2" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI2" t="n">
-        <v>7.9</v>
+        <v>7.4</v>
       </c>
       <c r="AJ2" t="n">
         <v>22</v>
       </c>
       <c r="AK2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL2" t="n">
         <v>90</v>
       </c>
       <c r="AM2" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AN2" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AO2" t="n">
         <v>101</v>
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.93</v>
+        <v>2.07</v>
       </c>
       <c r="H3" t="n">
         <v>3.7</v>
       </c>
       <c r="I3" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="K3" t="n">
         <v>2.27</v>
       </c>
       <c r="L3" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
@@ -853,69 +853,69 @@
         <v>2.02</v>
       </c>
       <c r="S3" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="T3" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="X3" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Z3" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="AA3" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AB3" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AD3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE3" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AG3" t="n">
         <v>13</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>13.5</v>
       </c>
       <c r="AH3" t="n">
         <v>50</v>
       </c>
       <c r="AI3" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AJ3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK3" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="AL3" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AM3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN3" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AO3" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AP3" t="inlineStr"/>
       <c r="AQ3" t="inlineStr"/>
@@ -952,13 +952,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I4" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J4" t="n">
         <v>2.2</v>
@@ -967,7 +967,7 @@
         <v>2.3</v>
       </c>
       <c r="L4" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.03</v>
@@ -994,7 +994,7 @@
         <v>1.44</v>
       </c>
       <c r="U4" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V4" t="n">
         <v>3.25</v>
@@ -1009,7 +1009,7 @@
         <v>8.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA4" t="n">
         <v>8.5</v>
@@ -1027,7 +1027,7 @@
         <v>13</v>
       </c>
       <c r="AF4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG4" t="n">
         <v>15</v>
@@ -1051,7 +1051,7 @@
         <v>34</v>
       </c>
       <c r="AN4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO4" t="n">
         <v>151</v>
@@ -1127,13 +1127,13 @@
         <v>2.63</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T5" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="U5" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="V5" t="n">
         <v>4</v>
@@ -1251,13 +1251,13 @@
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O6" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q6" t="n">
         <v>1.44</v>
@@ -1287,10 +1287,10 @@
         <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB6" t="n">
         <v>8.5</v>
@@ -1320,7 +1320,7 @@
         <v>41</v>
       </c>
       <c r="AK6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL6" t="n">
         <v>101</v>
@@ -1373,22 +1373,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="H7" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I7" t="n">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="J7" t="n">
-        <v>2.87</v>
+        <v>2.72</v>
       </c>
       <c r="K7" t="n">
         <v>2.12</v>
       </c>
       <c r="L7" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
@@ -1412,43 +1412,43 @@
         <v>3.45</v>
       </c>
       <c r="T7" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="U7" t="n">
         <v>1.4</v>
       </c>
       <c r="V7" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="W7" t="n">
         <v>1.83</v>
       </c>
       <c r="X7" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="Z7" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AB7" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AC7" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AD7" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AE7" t="n">
         <v>6.8</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AG7" t="n">
         <v>15</v>
@@ -1457,25 +1457,25 @@
         <v>75</v>
       </c>
       <c r="AI7" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AJ7" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AL7" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AM7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN7" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AO7" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AP7" t="inlineStr"/>
       <c r="AQ7" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-13.xlsx
@@ -682,43 +682,43 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.18</v>
+        <v>1.95</v>
       </c>
       <c r="H2" t="n">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="I2" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="L2" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N2" t="n">
         <v>4.4</v>
       </c>
-      <c r="J2" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>1.72</v>
       </c>
-      <c r="L2" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="N2" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.75</v>
-      </c>
       <c r="P2" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="S2" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="T2" t="n">
         <v>1.1</v>
@@ -727,61 +727,61 @@
         <v>1.72</v>
       </c>
       <c r="V2" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="W2" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="X2" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.7</v>
+        <v>4.45</v>
       </c>
       <c r="Z2" t="n">
-        <v>8.5</v>
+        <v>7.4</v>
       </c>
       <c r="AA2" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AB2" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD2" t="n">
         <v>60</v>
       </c>
       <c r="AE2" t="n">
-        <v>4.15</v>
+        <v>4.4</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH2" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AI2" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AJ2" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AK2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL2" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM2" t="n">
         <v>90</v>
       </c>
-      <c r="AM2" t="n">
-        <v>75</v>
-      </c>
       <c r="AN2" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AO2" t="n">
         <v>101</v>
@@ -821,30 +821,30 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="H3" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="J3" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K3" t="n">
         <v>2.27</v>
       </c>
       <c r="L3" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P3" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q3" t="n">
         <v>1.62</v>
@@ -867,28 +867,28 @@
         <v>2.1</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE3" t="n">
         <v>13.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AG3" t="n">
         <v>13</v>
@@ -897,22 +897,22 @@
         <v>50</v>
       </c>
       <c r="AI3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AK3" t="n">
         <v>11.5</v>
       </c>
-      <c r="AJ3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>10.75</v>
-      </c>
       <c r="AL3" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AM3" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AN3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO3" t="n">
         <v>300</v>
@@ -1373,106 +1373,106 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.15</v>
+        <v>1.91</v>
       </c>
       <c r="H7" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>3.15</v>
+        <v>3.7</v>
       </c>
       <c r="J7" t="n">
-        <v>2.72</v>
+        <v>2.47</v>
       </c>
       <c r="K7" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="L7" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P7" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S7" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="T7" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="U7" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="V7" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="W7" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="X7" t="n">
         <v>1.83</v>
       </c>
-      <c r="X7" t="n">
-        <v>1.87</v>
-      </c>
       <c r="Y7" t="n">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
       <c r="Z7" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AC7" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AD7" t="n">
         <v>30</v>
       </c>
       <c r="AE7" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH7" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AI7" t="n">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="n">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="AK7" t="n">
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AM7" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AN7" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AO7" t="n">
         <v>700</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-13.xlsx
@@ -682,79 +682,79 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.95</v>
+        <v>2.18</v>
       </c>
       <c r="H2" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="I2" t="n">
-        <v>4.85</v>
+        <v>3.95</v>
       </c>
       <c r="J2" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O2" t="n">
         <v>1.78</v>
       </c>
-      <c r="L2" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N2" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.72</v>
-      </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="R2" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="S2" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="T2" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="U2" t="n">
         <v>1.72</v>
       </c>
       <c r="V2" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="W2" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="X2" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.45</v>
+        <v>4.6</v>
       </c>
       <c r="Z2" t="n">
-        <v>7.4</v>
+        <v>8.25</v>
       </c>
       <c r="AA2" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AB2" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AC2" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AD2" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AE2" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="AF2" t="n">
         <v>6</v>
@@ -766,22 +766,22 @@
         <v>250</v>
       </c>
       <c r="AI2" t="n">
-        <v>8</v>
+        <v>6.9</v>
       </c>
       <c r="AJ2" t="n">
-        <v>25</v>
+        <v>18.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AL2" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AM2" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AN2" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AO2" t="n">
         <v>101</v>
@@ -821,30 +821,30 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="H3" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I3" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J3" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="K3" t="n">
         <v>2.27</v>
       </c>
       <c r="L3" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P3" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="Q3" t="n">
         <v>1.62</v>
@@ -853,10 +853,10 @@
         <v>2.02</v>
       </c>
       <c r="S3" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="T3" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
@@ -870,25 +870,25 @@
         <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AA3" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AB3" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AD3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE3" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AG3" t="n">
         <v>13</v>
@@ -897,13 +897,13 @@
         <v>50</v>
       </c>
       <c r="AI3" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AJ3" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AL3" t="n">
         <v>40</v>
@@ -915,7 +915,7 @@
         <v>29</v>
       </c>
       <c r="AO3" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AP3" t="inlineStr"/>
       <c r="AQ3" t="inlineStr"/>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H5" t="n">
         <v>5.5</v>
@@ -1100,10 +1100,10 @@
         <v>7.5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="K5" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="L5" t="n">
         <v>6.5</v>
@@ -1230,7 +1230,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="H6" t="n">
         <v>6</v>
@@ -1239,10 +1239,10 @@
         <v>9</v>
       </c>
       <c r="J6" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="K6" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="L6" t="n">
         <v>7.5</v>
@@ -1251,13 +1251,13 @@
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O6" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q6" t="n">
         <v>1.44</v>
@@ -1373,28 +1373,28 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I7" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J7" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="K7" t="n">
         <v>2.18</v>
       </c>
       <c r="L7" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="O7" t="n">
         <v>1.34</v>
@@ -1409,16 +1409,16 @@
         <v>1.72</v>
       </c>
       <c r="S7" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T7" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="U7" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="V7" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="W7" t="n">
         <v>1.87</v>
@@ -1427,16 +1427,16 @@
         <v>1.83</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="Z7" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AA7" t="n">
         <v>8.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC7" t="n">
         <v>16</v>
@@ -1445,10 +1445,10 @@
         <v>30</v>
       </c>
       <c r="AE7" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AG7" t="n">
         <v>16</v>
@@ -1457,10 +1457,10 @@
         <v>80</v>
       </c>
       <c r="AI7" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AJ7" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AK7" t="n">
         <v>12.5</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-13.xlsx
@@ -682,28 +682,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.18</v>
+        <v>2.27</v>
       </c>
       <c r="H2" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="I2" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K2" t="n">
         <v>1.75</v>
       </c>
       <c r="L2" t="n">
-        <v>4.8</v>
+        <v>4.65</v>
       </c>
       <c r="M2" t="n">
         <v>1.18</v>
       </c>
       <c r="N2" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="O2" t="n">
         <v>1.78</v>
@@ -715,7 +715,7 @@
         <v>3.25</v>
       </c>
       <c r="R2" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S2" t="n">
         <v>6.1</v>
@@ -724,40 +724,40 @@
         <v>1.09</v>
       </c>
       <c r="U2" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="V2" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="W2" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="X2" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.6</v>
+        <v>4.75</v>
       </c>
       <c r="Z2" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AA2" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AB2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AD2" t="n">
         <v>70</v>
       </c>
       <c r="AE2" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="AF2" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AG2" t="n">
         <v>26</v>
@@ -766,19 +766,19 @@
         <v>250</v>
       </c>
       <c r="AI2" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="AJ2" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AK2" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM2" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN2" t="n">
         <v>100</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="H5" t="n">
         <v>5.5</v>
@@ -1100,10 +1100,10 @@
         <v>7.5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="K5" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="L5" t="n">
         <v>6.5</v>
@@ -1127,10 +1127,10 @@
         <v>2.63</v>
       </c>
       <c r="S5" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T5" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="U5" t="n">
         <v>1.22</v>
@@ -1230,7 +1230,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="H6" t="n">
         <v>6</v>
@@ -1239,10 +1239,10 @@
         <v>9</v>
       </c>
       <c r="J6" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="K6" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="L6" t="n">
         <v>7.5</v>
@@ -1251,13 +1251,13 @@
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O6" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q6" t="n">
         <v>1.44</v>
@@ -1373,103 +1373,103 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.95</v>
+        <v>2.12</v>
       </c>
       <c r="H7" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="I7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N7" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S7" t="n">
         <v>3.6</v>
       </c>
-      <c r="J7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="L7" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N7" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3.4</v>
-      </c>
       <c r="T7" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="U7" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="V7" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="W7" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="X7" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="Z7" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB7" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AD7" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AE7" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH7" t="n">
         <v>80</v>
       </c>
       <c r="AI7" t="n">
-        <v>9.75</v>
+        <v>8.75</v>
       </c>
       <c r="AJ7" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AL7" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AM7" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AN7" t="n">
         <v>45</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-13.xlsx
@@ -682,106 +682,106 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.27</v>
+        <v>2.18</v>
       </c>
       <c r="H2" t="n">
-        <v>2.67</v>
+        <v>2.85</v>
       </c>
       <c r="I2" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J2" t="n">
-        <v>3.1</v>
+        <v>2.85</v>
       </c>
       <c r="K2" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="L2" t="n">
-        <v>4.65</v>
+        <v>4.45</v>
       </c>
       <c r="M2" t="n">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="N2" t="n">
-        <v>4.25</v>
+        <v>5.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.78</v>
+        <v>1.55</v>
       </c>
       <c r="P2" t="n">
-        <v>1.93</v>
+        <v>2.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.25</v>
+        <v>2.62</v>
       </c>
       <c r="R2" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="S2" t="n">
-        <v>6.1</v>
+        <v>4.75</v>
       </c>
       <c r="T2" t="n">
-        <v>1.09</v>
+        <v>1.15</v>
       </c>
       <c r="U2" t="n">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="V2" t="n">
-        <v>1.98</v>
+        <v>2.25</v>
       </c>
       <c r="W2" t="n">
-        <v>2.55</v>
+        <v>2.18</v>
       </c>
       <c r="X2" t="n">
-        <v>1.45</v>
+        <v>1.62</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AA2" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC2" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AD2" t="n">
+        <v>45</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN2" t="n">
         <v>70</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>250</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>100</v>
       </c>
       <c r="AO2" t="n">
         <v>101</v>
@@ -821,101 +821,101 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="H3" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L3" t="n">
         <v>3.7</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3.5</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="P3" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R3" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="S3" t="n">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="T3" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="X3" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AC3" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE3" t="n">
         <v>15</v>
       </c>
-      <c r="AD3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>13</v>
-      </c>
       <c r="AF3" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="AG3" t="n">
         <v>13</v>
       </c>
       <c r="AH3" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AI3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK3" t="n">
         <v>11.75</v>
       </c>
-      <c r="AJ3" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>11</v>
-      </c>
       <c r="AL3" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AM3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AN3" t="n">
         <v>29</v>
       </c>
       <c r="AO3" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AP3" t="inlineStr"/>
       <c r="AQ3" t="inlineStr"/>
@@ -970,10 +970,10 @@
         <v>4.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O4" t="n">
         <v>1.2</v>
@@ -982,7 +982,7 @@
         <v>4.33</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="R4" t="n">
         <v>2.15</v>
@@ -1000,10 +1000,10 @@
         <v>3.25</v>
       </c>
       <c r="W4" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="X4" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y4" t="n">
         <v>8.5</v>
@@ -1027,7 +1027,7 @@
         <v>13</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG4" t="n">
         <v>15</v>
@@ -1091,22 +1091,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H5" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="I5" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="K5" t="n">
         <v>2.63</v>
       </c>
       <c r="L5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
         <v>1.02</v>
@@ -1115,16 +1115,16 @@
         <v>12</v>
       </c>
       <c r="O5" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="R5" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="S5" t="n">
         <v>2</v>
@@ -1139,22 +1139,22 @@
         <v>4</v>
       </c>
       <c r="W5" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="X5" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Y5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA5" t="n">
         <v>9</v>
       </c>
       <c r="AB5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC5" t="n">
         <v>11</v>
@@ -1169,7 +1169,7 @@
         <v>11</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH5" t="n">
         <v>41</v>
@@ -1184,7 +1184,7 @@
         <v>21</v>
       </c>
       <c r="AL5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM5" t="n">
         <v>41</v>
@@ -1260,10 +1260,10 @@
         <v>5.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="R6" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="S6" t="n">
         <v>2.1</v>
@@ -1373,28 +1373,28 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.12</v>
+        <v>1.88</v>
       </c>
       <c r="H7" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="J7" t="n">
-        <v>2.67</v>
+        <v>2.4</v>
       </c>
       <c r="K7" t="n">
         <v>2.12</v>
       </c>
       <c r="L7" t="n">
-        <v>3.8</v>
+        <v>4.55</v>
       </c>
       <c r="M7" t="n">
         <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="O7" t="n">
         <v>1.37</v>
@@ -1409,46 +1409,46 @@
         <v>1.65</v>
       </c>
       <c r="S7" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T7" t="n">
         <v>1.25</v>
       </c>
       <c r="U7" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="V7" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="W7" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="X7" t="n">
         <v>1.82</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="Z7" t="n">
-        <v>9.5</v>
+        <v>8.25</v>
       </c>
       <c r="AA7" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="AB7" t="n">
-        <v>19.5</v>
+        <v>16</v>
       </c>
       <c r="AC7" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AD7" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AE7" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AG7" t="n">
         <v>15.5</v>
@@ -1457,22 +1457,22 @@
         <v>80</v>
       </c>
       <c r="AI7" t="n">
-        <v>8.75</v>
+        <v>10.25</v>
       </c>
       <c r="AJ7" t="n">
-        <v>16.5</v>
+        <v>23</v>
       </c>
       <c r="AK7" t="n">
-        <v>11.75</v>
+        <v>14</v>
       </c>
       <c r="AL7" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM7" t="n">
         <v>45</v>
       </c>
-      <c r="AM7" t="n">
-        <v>32</v>
-      </c>
       <c r="AN7" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AO7" t="n">
         <v>700</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-13.xlsx
@@ -606,37 +606,37 @@
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_4-4</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-1</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_4-4</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
@@ -682,22 +682,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="H2" t="n">
-        <v>2.85</v>
+        <v>2.77</v>
       </c>
       <c r="I2" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="K2" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="L2" t="n">
-        <v>4.45</v>
+        <v>4.25</v>
       </c>
       <c r="M2" t="n">
         <v>1.13</v>
@@ -709,19 +709,19 @@
         <v>1.55</v>
       </c>
       <c r="P2" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
       <c r="R2" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S2" t="n">
-        <v>4.75</v>
+        <v>4.6</v>
       </c>
       <c r="T2" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="U2" t="n">
         <v>1.57</v>
@@ -730,61 +730,61 @@
         <v>2.25</v>
       </c>
       <c r="W2" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="X2" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="Z2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA2" t="n">
         <v>9.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AC2" t="n">
         <v>22</v>
       </c>
       <c r="AD2" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AE2" t="n">
         <v>5.1</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AI2" t="n">
-        <v>7.5</v>
+        <v>900</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17.5</v>
+        <v>7.3</v>
       </c>
       <c r="AK2" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="AL2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>45</v>
+      </c>
+      <c r="AO2" t="n">
         <v>60</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>45</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>70</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>101</v>
       </c>
       <c r="AP2" t="inlineStr"/>
       <c r="AQ2" t="inlineStr"/>
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="H3" t="n">
         <v>3.8</v>
       </c>
       <c r="I3" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="J3" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="K3" t="n">
         <v>2.3</v>
       </c>
       <c r="L3" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
@@ -847,13 +847,13 @@
         <v>3.7</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R3" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="S3" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="T3" t="n">
         <v>1.45</v>
@@ -861,22 +861,22 @@
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="X3" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="Z3" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AA3" t="n">
         <v>8.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC3" t="n">
         <v>13.5</v>
@@ -885,37 +885,37 @@
         <v>21</v>
       </c>
       <c r="AE3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF3" t="n">
         <v>7.6</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AI3" t="n">
-        <v>13</v>
+        <v>300</v>
       </c>
       <c r="AJ3" t="n">
-        <v>20</v>
+        <v>13.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>11.75</v>
+        <v>21</v>
       </c>
       <c r="AL3" t="n">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="AM3" t="n">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="AN3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO3" t="n">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="AP3" t="inlineStr"/>
       <c r="AQ3" t="inlineStr"/>
@@ -952,28 +952,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H4" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I4" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K4" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L4" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O4" t="n">
         <v>1.2</v>
@@ -982,22 +982,22 @@
         <v>4.33</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="R4" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S4" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T4" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U4" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V4" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W4" t="n">
         <v>1.67</v>
@@ -1021,10 +1021,10 @@
         <v>13</v>
       </c>
       <c r="AD4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF4" t="n">
         <v>8</v>
@@ -1036,28 +1036,32 @@
         <v>41</v>
       </c>
       <c r="AI4" t="n">
+        <v>151</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL4" t="n">
         <v>15</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL4" t="n">
+      <c r="AM4" t="n">
         <v>51</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>34</v>
       </c>
       <c r="AN4" t="n">
         <v>34</v>
       </c>
       <c r="AO4" t="n">
-        <v>151</v>
-      </c>
-      <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="inlineStr"/>
+        <v>34</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>1.78</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1091,13 +1095,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="H5" t="n">
         <v>5.25</v>
       </c>
       <c r="I5" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J5" t="n">
         <v>1.8</v>
@@ -1106,13 +1110,13 @@
         <v>2.63</v>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.02</v>
+        <v>21</v>
       </c>
       <c r="N5" t="n">
-        <v>12</v>
+        <v>1.03</v>
       </c>
       <c r="O5" t="n">
         <v>1.11</v>
@@ -1121,7 +1125,7 @@
         <v>6</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="R5" t="n">
         <v>2.75</v>
@@ -1154,7 +1158,7 @@
         <v>9</v>
       </c>
       <c r="AB5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC5" t="n">
         <v>11</v>
@@ -1175,25 +1179,25 @@
         <v>41</v>
       </c>
       <c r="AI5" t="n">
+        <v>126</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>23</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AK5" t="n">
         <v>41</v>
       </c>
-      <c r="AK5" t="n">
-        <v>21</v>
-      </c>
       <c r="AL5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM5" t="n">
         <v>67</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>41</v>
       </c>
       <c r="AN5" t="n">
         <v>41</v>
       </c>
       <c r="AO5" t="n">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="AP5" t="inlineStr"/>
       <c r="AQ5" t="inlineStr"/>
@@ -1230,22 +1234,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="I6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="J6" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="K6" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
@@ -1260,10 +1264,10 @@
         <v>5.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="R6" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="S6" t="n">
         <v>2.1</v>
@@ -1278,28 +1282,28 @@
         <v>3.75</v>
       </c>
       <c r="W6" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="X6" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Y6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC6" t="n">
         <v>11</v>
       </c>
       <c r="AD6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE6" t="n">
         <v>19</v>
@@ -1308,31 +1312,31 @@
         <v>12</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH6" t="n">
         <v>51</v>
       </c>
       <c r="AI6" t="n">
+        <v>600</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>26</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AK6" t="n">
         <v>41</v>
       </c>
-      <c r="AK6" t="n">
-        <v>23</v>
-      </c>
       <c r="AL6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM6" t="n">
         <v>101</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>51</v>
       </c>
       <c r="AN6" t="n">
         <v>51</v>
       </c>
       <c r="AO6" t="n">
-        <v>600</v>
+        <v>51</v>
       </c>
       <c r="AP6" t="n">
         <v>1.8</v>
@@ -1373,109 +1377,109 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="H7" t="n">
         <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J7" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="K7" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L7" t="n">
-        <v>4.55</v>
+        <v>4.35</v>
       </c>
       <c r="M7" t="n">
         <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="P7" t="n">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="R7" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S7" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="T7" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="U7" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="V7" t="n">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="W7" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="X7" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AA7" t="n">
         <v>8.25</v>
       </c>
       <c r="AB7" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC7" t="n">
         <v>16</v>
       </c>
       <c r="AD7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE7" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AF7" t="n">
         <v>6.2</v>
       </c>
       <c r="AG7" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH7" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AI7" t="n">
-        <v>10.25</v>
+        <v>600</v>
       </c>
       <c r="AJ7" t="n">
-        <v>23</v>
+        <v>10.75</v>
       </c>
       <c r="AK7" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AL7" t="n">
-        <v>70</v>
+        <v>13.5</v>
       </c>
       <c r="AM7" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>40</v>
+      </c>
+      <c r="AO7" t="n">
         <v>45</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>50</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>700</v>
       </c>
       <c r="AP7" t="inlineStr"/>
       <c r="AQ7" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-13.xlsx
@@ -682,22 +682,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H2" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="I2" t="n">
         <v>3.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
         <v>1.87</v>
       </c>
       <c r="L2" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="M2" t="n">
         <v>1.13</v>
@@ -709,19 +709,19 @@
         <v>1.55</v>
       </c>
       <c r="P2" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="R2" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S2" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="T2" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="U2" t="n">
         <v>1.57</v>
@@ -736,7 +736,7 @@
         <v>1.65</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z2" t="n">
         <v>10</v>
@@ -748,22 +748,22 @@
         <v>24</v>
       </c>
       <c r="AC2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AD2" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AE2" t="n">
         <v>5.1</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AG2" t="n">
         <v>17.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AI2" t="n">
         <v>900</v>
@@ -781,7 +781,7 @@
         <v>55</v>
       </c>
       <c r="AN2" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AO2" t="n">
         <v>60</v>
@@ -821,42 +821,42 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="H3" t="n">
         <v>3.8</v>
       </c>
       <c r="I3" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="J3" t="n">
-        <v>2.35</v>
+        <v>2.42</v>
       </c>
       <c r="K3" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="L3" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P3" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="Q3" t="n">
         <v>1.6</v>
       </c>
       <c r="R3" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="S3" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T3" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
@@ -864,31 +864,31 @@
         <v>1.57</v>
       </c>
       <c r="X3" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AA3" t="n">
         <v>8.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AD3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE3" t="n">
         <v>14</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AG3" t="n">
         <v>13.5</v>
@@ -900,19 +900,19 @@
         <v>300</v>
       </c>
       <c r="AJ3" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL3" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AM3" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AN3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO3" t="n">
         <v>30</v>
@@ -952,115 +952,115 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H4" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="I4" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K4" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="L4" t="n">
         <v>4.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="R4" t="n">
-        <v>2.25</v>
+        <v>1.98</v>
       </c>
       <c r="S4" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T4" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="U4" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="V4" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="W4" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="X4" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA4" t="n">
         <v>8.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC4" t="n">
         <v>13</v>
       </c>
       <c r="AD4" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AE4" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AF4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG4" t="n">
         <v>15</v>
       </c>
       <c r="AH4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI4" t="n">
         <v>151</v>
       </c>
       <c r="AJ4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK4" t="n">
         <v>26</v>
       </c>
       <c r="AL4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM4" t="n">
         <v>51</v>
       </c>
       <c r="AN4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP4" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="5">
@@ -1113,16 +1113,16 @@
         <v>5.5</v>
       </c>
       <c r="M5" t="n">
-        <v>21</v>
+        <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>1.03</v>
+        <v>12</v>
       </c>
       <c r="O5" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q5" t="n">
         <v>1.4</v>
@@ -1234,28 +1234,28 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="H6" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="I6" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="J6" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="K6" t="n">
         <v>2.75</v>
       </c>
       <c r="L6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.02</v>
+        <v>19</v>
       </c>
       <c r="N6" t="n">
-        <v>12</v>
+        <v>1.03</v>
       </c>
       <c r="O6" t="n">
         <v>1.13</v>
@@ -1270,16 +1270,16 @@
         <v>2.63</v>
       </c>
       <c r="S6" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T6" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="U6" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="V6" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="W6" t="n">
         <v>1.91</v>
@@ -1288,7 +1288,7 @@
         <v>1.8</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z6" t="n">
         <v>7</v>
@@ -1309,7 +1309,7 @@
         <v>19</v>
       </c>
       <c r="AF6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG6" t="n">
         <v>23</v>
@@ -1318,22 +1318,22 @@
         <v>51</v>
       </c>
       <c r="AI6" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AJ6" t="n">
         <v>26</v>
       </c>
       <c r="AK6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM6" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AN6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AO6" t="n">
         <v>51</v>
@@ -1377,109 +1377,109 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.9</v>
+        <v>2.32</v>
       </c>
       <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
         <v>3.2</v>
       </c>
-      <c r="I7" t="n">
-        <v>4.1</v>
-      </c>
       <c r="J7" t="n">
-        <v>2.42</v>
+        <v>2.87</v>
       </c>
       <c r="K7" t="n">
-        <v>2.15</v>
+        <v>2.02</v>
       </c>
       <c r="L7" t="n">
-        <v>4.35</v>
+        <v>3.7</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="P7" t="n">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="R7" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S7" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="T7" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="U7" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="V7" t="n">
-        <v>2.82</v>
+        <v>2.65</v>
       </c>
       <c r="W7" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="X7" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z7" t="n">
-        <v>8.5</v>
+        <v>10.75</v>
       </c>
       <c r="AA7" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="AB7" t="n">
-        <v>16.5</v>
+        <v>24</v>
       </c>
       <c r="AC7" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AD7" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AE7" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH7" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AI7" t="n">
         <v>600</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10.75</v>
+        <v>8.75</v>
       </c>
       <c r="AK7" t="n">
-        <v>22</v>
+        <v>16.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AM7" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AN7" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO7" t="n">
         <v>40</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>45</v>
       </c>
       <c r="AP7" t="inlineStr"/>
       <c r="AQ7" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-13.xlsx
@@ -682,22 +682,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="H2" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="I2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K2" t="n">
         <v>1.87</v>
       </c>
       <c r="L2" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="M2" t="n">
         <v>1.13</v>
@@ -730,25 +730,25 @@
         <v>2.25</v>
       </c>
       <c r="W2" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="X2" t="n">
         <v>1.65</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Z2" t="n">
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AB2" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC2" t="n">
         <v>24</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>23</v>
       </c>
       <c r="AD2" t="n">
         <v>45</v>
@@ -757,10 +757,10 @@
         <v>5.1</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AG2" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AH2" t="n">
         <v>120</v>
@@ -772,19 +772,19 @@
         <v>7.3</v>
       </c>
       <c r="AK2" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL2" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AM2" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN2" t="n">
         <v>40</v>
       </c>
       <c r="AO2" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AP2" t="inlineStr"/>
       <c r="AQ2" t="inlineStr"/>
@@ -955,85 +955,85 @@
         <v>1.65</v>
       </c>
       <c r="H4" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J4" t="n">
         <v>2.2</v>
       </c>
       <c r="K4" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L4" t="n">
         <v>4.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z4" t="n">
         <v>8.5</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V4" t="n">
-        <v>3</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>8</v>
       </c>
       <c r="AA4" t="n">
         <v>8.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC4" t="n">
         <v>13</v>
       </c>
       <c r="AD4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG4" t="n">
         <v>15</v>
       </c>
       <c r="AH4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI4" t="n">
         <v>151</v>
@@ -1045,13 +1045,13 @@
         <v>26</v>
       </c>
       <c r="AL4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM4" t="n">
         <v>51</v>
       </c>
       <c r="AN4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO4" t="n">
         <v>41</v>
@@ -1119,10 +1119,10 @@
         <v>12</v>
       </c>
       <c r="O5" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q5" t="n">
         <v>1.4</v>
@@ -1131,10 +1131,10 @@
         <v>2.75</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T5" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="U5" t="n">
         <v>1.22</v>
@@ -1164,10 +1164,10 @@
         <v>11</v>
       </c>
       <c r="AD5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF5" t="n">
         <v>11</v>
@@ -1234,10 +1234,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="H6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I6" t="n">
         <v>11</v>
@@ -1246,34 +1246,34 @@
         <v>1.57</v>
       </c>
       <c r="K6" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="L6" t="n">
         <v>8.5</v>
       </c>
       <c r="M6" t="n">
-        <v>19</v>
+        <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>1.03</v>
+        <v>12</v>
       </c>
       <c r="O6" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R6" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T6" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="U6" t="n">
         <v>1.22</v>
@@ -1291,7 +1291,7 @@
         <v>10</v>
       </c>
       <c r="Z6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA6" t="n">
         <v>10</v>
@@ -1306,7 +1306,7 @@
         <v>26</v>
       </c>
       <c r="AE6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF6" t="n">
         <v>13</v>
@@ -1321,7 +1321,7 @@
         <v>700</v>
       </c>
       <c r="AJ6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK6" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-13.xlsx
@@ -682,46 +682,46 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.35</v>
+        <v>2.27</v>
       </c>
       <c r="H2" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="I2" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J2" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="K2" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="L2" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="M2" t="n">
         <v>1.13</v>
       </c>
       <c r="N2" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O2" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="P2" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="R2" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="S2" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="T2" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="U2" t="n">
         <v>1.57</v>
@@ -730,55 +730,55 @@
         <v>2.25</v>
       </c>
       <c r="W2" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="X2" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z2" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AA2" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AB2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AD2" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AE2" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AI2" t="n">
         <v>900</v>
       </c>
       <c r="AJ2" t="n">
-        <v>7.3</v>
+        <v>7.8</v>
       </c>
       <c r="AK2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AL2" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AM2" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AN2" t="n">
         <v>40</v>
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="I4" t="n">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="J4" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L4" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.03</v>
@@ -982,10 +982,10 @@
         <v>4.33</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R4" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S4" t="n">
         <v>2.63</v>
@@ -1000,25 +1000,25 @@
         <v>3.25</v>
       </c>
       <c r="W4" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="X4" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
       </c>
       <c r="Z4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA4" t="n">
         <v>8.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AC4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD4" t="n">
         <v>23</v>
@@ -1027,31 +1027,31 @@
         <v>13</v>
       </c>
       <c r="AF4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI4" t="n">
         <v>151</v>
       </c>
       <c r="AJ4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM4" t="n">
         <v>51</v>
       </c>
       <c r="AN4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO4" t="n">
         <v>41</v>
@@ -1131,10 +1131,10 @@
         <v>2.75</v>
       </c>
       <c r="S5" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T5" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="U5" t="n">
         <v>1.22</v>
@@ -1164,10 +1164,10 @@
         <v>11</v>
       </c>
       <c r="AD5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
         <v>11</v>
@@ -1243,13 +1243,13 @@
         <v>11</v>
       </c>
       <c r="J6" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="K6" t="n">
         <v>2.88</v>
       </c>
       <c r="L6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
@@ -1297,7 +1297,7 @@
         <v>10</v>
       </c>
       <c r="AB6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC6" t="n">
         <v>11</v>
@@ -1315,10 +1315,10 @@
         <v>23</v>
       </c>
       <c r="AH6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI6" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AJ6" t="n">
         <v>29</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-13.xlsx
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="H2" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I2" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J2" t="n">
         <v>2.95</v>
@@ -697,13 +697,13 @@
         <v>1.85</v>
       </c>
       <c r="L2" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="M2" t="n">
         <v>1.13</v>
       </c>
       <c r="N2" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="O2" t="n">
         <v>1.53</v>
@@ -712,13 +712,13 @@
         <v>2.35</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="R2" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="S2" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="T2" t="n">
         <v>1.16</v>
@@ -736,43 +736,43 @@
         <v>1.7</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="Z2" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AD2" t="n">
         <v>40</v>
       </c>
       <c r="AE2" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AG2" t="n">
         <v>16.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AI2" t="n">
         <v>900</v>
       </c>
       <c r="AJ2" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AK2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL2" t="n">
         <v>13</v>
@@ -1095,28 +1095,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="H5" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="I5" t="n">
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="K5" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>1.02</v>
+        <v>23</v>
       </c>
       <c r="N5" t="n">
-        <v>12</v>
+        <v>1.03</v>
       </c>
       <c r="O5" t="n">
         <v>1.11</v>
@@ -1125,16 +1125,16 @@
         <v>6</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="R5" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T5" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="U5" t="n">
         <v>1.22</v>
@@ -1158,7 +1158,7 @@
         <v>9</v>
       </c>
       <c r="AB5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC5" t="n">
         <v>11</v>
@@ -1167,7 +1167,7 @@
         <v>21</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF5" t="n">
         <v>11</v>
@@ -1182,16 +1182,16 @@
         <v>126</v>
       </c>
       <c r="AJ5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK5" t="n">
         <v>41</v>
       </c>
       <c r="AL5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN5" t="n">
         <v>41</v>
@@ -1246,82 +1246,82 @@
         <v>1.53</v>
       </c>
       <c r="K6" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="L6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M6" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
+        <v>13</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Y6" t="n">
         <v>12</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P6" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="V6" t="n">
-        <v>4</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="X6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>10</v>
-      </c>
       <c r="Z6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA6" t="n">
         <v>10</v>
       </c>
       <c r="AB6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC6" t="n">
         <v>11</v>
       </c>
       <c r="AD6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG6" t="n">
         <v>23</v>
       </c>
       <c r="AH6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI6" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AJ6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK6" t="n">
         <v>51</v>
@@ -1333,7 +1333,7 @@
         <v>126</v>
       </c>
       <c r="AN6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AO6" t="n">
         <v>51</v>
